--- a/labelled_csv_files/labelled_M_0078_12y4m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0078_12y4m_1_fa.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88542180-A3F4-7349-81BD-BDB6A52504FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AF36DBE2-62AB-9245-8794-D638DA70D48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="460" windowWidth="10000" windowHeight="15000"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="15020" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0078_12y4m_1_fa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1278,8 +1286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1418,6 +1426,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1764,9 +1779,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2121,11 +2137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5638,7 +5654,7 @@
         <v>93.52</v>
       </c>
       <c r="D176">
-        <v>95.594999999999999</v>
+        <v>94.594999999999999</v>
       </c>
       <c r="E176" t="s">
         <v>299</v>
@@ -5655,10 +5671,10 @@
         <v>300</v>
       </c>
       <c r="C177">
-        <v>95.594999999999999</v>
+        <v>94.594999999999999</v>
       </c>
       <c r="D177">
-        <v>95.864999999999995</v>
+        <v>94.765000000000001</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -5675,10 +5691,10 @@
         <v>301</v>
       </c>
       <c r="C178">
-        <v>95.864999999999995</v>
+        <v>94.765000000000001</v>
       </c>
       <c r="D178">
-        <v>95.974999999999994</v>
+        <v>94.974999999999994</v>
       </c>
       <c r="E178" t="s">
         <v>302</v>
@@ -5695,10 +5711,10 @@
         <v>303</v>
       </c>
       <c r="C179">
-        <v>95.974999999999994</v>
+        <v>94.974999999999994</v>
       </c>
       <c r="D179">
-        <v>96.165000000000006</v>
+        <v>95.125</v>
       </c>
       <c r="E179" t="s">
         <v>304</v>
@@ -5715,10 +5731,10 @@
         <v>305</v>
       </c>
       <c r="C180">
-        <v>96.165000000000006</v>
-      </c>
-      <c r="D180">
-        <v>96.37</v>
+        <v>95.125</v>
+      </c>
+      <c r="D180" s="2">
+        <v>95.424999999999997</v>
       </c>
       <c r="E180" t="s">
         <v>304</v>
@@ -5734,11 +5750,12 @@
       <c r="B181" t="s">
         <v>306</v>
       </c>
-      <c r="C181">
-        <v>96.37</v>
+      <c r="C181" s="2">
+        <f>D180</f>
+        <v>95.424999999999997</v>
       </c>
       <c r="D181">
-        <v>96.564999999999998</v>
+        <v>95.564999999999998</v>
       </c>
       <c r="E181" t="s">
         <v>304</v>
@@ -5754,11 +5771,12 @@
       <c r="B182" t="s">
         <v>307</v>
       </c>
-      <c r="C182">
-        <v>96.564999999999998</v>
+      <c r="C182" s="2">
+        <f t="shared" ref="C182:C191" si="0">D181</f>
+        <v>95.564999999999998</v>
       </c>
       <c r="D182">
-        <v>96.885000000000005</v>
+        <v>95.784999999999997</v>
       </c>
       <c r="E182" t="s">
         <v>73</v>
@@ -5774,11 +5792,12 @@
       <c r="B183" t="s">
         <v>308</v>
       </c>
-      <c r="C183">
-        <v>96.885000000000005</v>
+      <c r="C183" s="2">
+        <f t="shared" si="0"/>
+        <v>95.784999999999997</v>
       </c>
       <c r="D183">
-        <v>97.295000000000002</v>
+        <v>95.995000000000005</v>
       </c>
       <c r="E183" t="s">
         <v>52</v>
@@ -5794,11 +5813,12 @@
       <c r="B184" t="s">
         <v>309</v>
       </c>
-      <c r="C184">
-        <v>97.295000000000002</v>
+      <c r="C184" s="2">
+        <f t="shared" si="0"/>
+        <v>95.995000000000005</v>
       </c>
       <c r="D184">
-        <v>97.564999999999998</v>
+        <v>96.165000000000006</v>
       </c>
       <c r="E184" t="s">
         <v>310</v>
@@ -5814,11 +5834,12 @@
       <c r="B185" t="s">
         <v>311</v>
       </c>
-      <c r="C185">
-        <v>97.564999999999998</v>
+      <c r="C185" s="2">
+        <f t="shared" si="0"/>
+        <v>96.165000000000006</v>
       </c>
       <c r="D185">
-        <v>98.34</v>
+        <v>96.344999999999999</v>
       </c>
       <c r="E185" t="s">
         <v>65</v>
@@ -5834,11 +5855,12 @@
       <c r="B186" t="s">
         <v>312</v>
       </c>
-      <c r="C186">
-        <v>98.34</v>
+      <c r="C186" s="2">
+        <f t="shared" si="0"/>
+        <v>96.344999999999999</v>
       </c>
       <c r="D186">
-        <v>99.39</v>
+        <v>96.594999999999999</v>
       </c>
       <c r="E186" t="s">
         <v>310</v>
@@ -5854,11 +5876,12 @@
       <c r="B187" t="s">
         <v>313</v>
       </c>
-      <c r="C187">
-        <v>99.39</v>
+      <c r="C187" s="2">
+        <f t="shared" si="0"/>
+        <v>96.594999999999999</v>
       </c>
       <c r="D187">
-        <v>99.49</v>
+        <v>97.094999999999999</v>
       </c>
       <c r="E187" t="s">
         <v>314</v>
@@ -5874,8 +5897,9 @@
       <c r="B188" t="s">
         <v>315</v>
       </c>
-      <c r="C188">
-        <v>99.49</v>
+      <c r="C188" s="2">
+        <f t="shared" si="0"/>
+        <v>97.094999999999999</v>
       </c>
       <c r="D188">
         <v>103.035</v>
@@ -5894,7 +5918,8 @@
       <c r="B189" t="s">
         <v>317</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
+        <f t="shared" si="0"/>
         <v>103.035</v>
       </c>
       <c r="D189">
@@ -5914,7 +5939,8 @@
       <c r="B190" t="s">
         <v>318</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
+        <f t="shared" si="0"/>
         <v>103.295</v>
       </c>
       <c r="D190">
@@ -5934,7 +5960,8 @@
       <c r="B191" t="s">
         <v>320</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
+        <f t="shared" si="0"/>
         <v>103.44499999999999</v>
       </c>
       <c r="D191">
